--- a/cargues/asignaciones_tecnicos.xlsx
+++ b/cargues/asignaciones_tecnicos.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoexpress-my.sharepoint.com/personal/sergio_hincapie_consorcioexpress_co/Documents/Gestión de la Operación/0 - Script Python/Asignación_Controles/cargues/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoexpress-my.sharepoint.com/personal/sergio_hincapie_consorcioexpress_co/Documents/Gestión de la Operación/0 - Script Python/GestiónExpress/cargues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{3F2A6E07-D397-4EA2-9B29-E809FADA20B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF712F42-EB5F-4FAF-B20A-FD96EBDE068B}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{3F2A6E07-D397-4EA2-9B29-E809FADA20B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{954CDE44-9CA5-47FB-9A81-04920D559D38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED95A2D2-6ECC-48FF-8A2C-32E0E9A8B739}"/>
+    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{ED95A2D2-6ECC-48FF-8A2C-32E0E9A8B739}"/>
   </bookViews>
   <sheets>
     <sheet name="TCZ" sheetId="1" r:id="rId1"/>
-    <sheet name="Controles" sheetId="2" r:id="rId2"/>
+    <sheet name="Supervisores" sheetId="3" r:id="rId2"/>
+    <sheet name="Turnos" sheetId="4" r:id="rId3"/>
+    <sheet name="Controles" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Controles!$A$1:$H$874</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCZ!$A$1:$B$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Controles!$A$1:$H$874</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Supervisores!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCZ!$A$1:$B$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="239">
   <si>
     <t>GARCIA GUTIERREZ KENNY JESUS</t>
   </si>
@@ -642,6 +645,123 @@
   <si>
     <t>Z4B</t>
   </si>
+  <si>
+    <t>GOMEZ GARZON BIBIANA</t>
+  </si>
+  <si>
+    <t>SALAZAR PULIDO CAMILO ANDRES</t>
+  </si>
+  <si>
+    <t>POLO SANCHEZ JULIO CESAR</t>
+  </si>
+  <si>
+    <t>SUAREZ ALDANA ANDRES ENRIQUE</t>
+  </si>
+  <si>
+    <t>MORA ALARCON JORGE ERNESTO</t>
+  </si>
+  <si>
+    <t>CAÑON DAZA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>ALZATE PUENTES JUAN FELIPE</t>
+  </si>
+  <si>
+    <t>GIRALDO GIRON WILLIAM RAMIRO</t>
+  </si>
+  <si>
+    <t>PEÑA SOTO JOHANNA MILENA</t>
+  </si>
+  <si>
+    <t>turno</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_fin</t>
+  </si>
+  <si>
+    <t>Mañana Hábil</t>
+  </si>
+  <si>
+    <t>Tarde Hábil</t>
+  </si>
+  <si>
+    <t>Noche Hábil</t>
+  </si>
+  <si>
+    <t>Noche Domingo Pre-festivo</t>
+  </si>
+  <si>
+    <t>Mañana Festivo</t>
+  </si>
+  <si>
+    <t>Tarde Domingo. P.F</t>
+  </si>
+  <si>
+    <t>Mañana Festivo Reducido</t>
+  </si>
+  <si>
+    <t>Tarde Festivo Reducido</t>
+  </si>
+  <si>
+    <t>Noche Domingo</t>
+  </si>
+  <si>
+    <t>Noche Festivo</t>
+  </si>
+  <si>
+    <t>Noche Hábil Pre-Festivo</t>
+  </si>
+  <si>
+    <t>Noche Sábado</t>
+  </si>
+  <si>
+    <t>20E</t>
+  </si>
+  <si>
+    <t>Tarde Domingo Reducida</t>
+  </si>
+  <si>
+    <t>21E</t>
+  </si>
+  <si>
+    <t>Tarde Habitual Reducida</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>Mañana habitual Reducida</t>
+  </si>
+  <si>
+    <t>AUSENCIA</t>
+  </si>
+  <si>
+    <t>Ausentismo</t>
+  </si>
+  <si>
+    <t>DESCANSO</t>
+  </si>
+  <si>
+    <t>Descanso Programado</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>Vacaciones Programado</t>
+  </si>
+  <si>
+    <t>OTRAS TAREAS</t>
+  </si>
+  <si>
+    <t>Otras Tareas Programadas</t>
+  </si>
+  <si>
+    <t>detalles</t>
+  </si>
 </sst>
 </file>
 
@@ -713,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,6 +850,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1275,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB92BBD-F793-4462-9D01-B37BB7E75AEC}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1825,14 +1951,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>1022353193</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B68" xr:uid="{5CB92BBD-F793-4462-9D01-B37BB7E75AEC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,12 +1958,492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABF1AF-6830-4ADB-8972-973A6E06D107}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="5" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1030552335</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1023923591</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1094913988</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>52746237</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>79561682</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>52859533</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1067858234</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1032431782</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1013597260</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1022353193</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A91BB5-7C2D-46D8-8859-F4943174B152}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="5" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EBE558-BCB8-433A-B949-0EB439F0EC89}">
   <dimension ref="A1:H874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
